--- a/update_price/prices/mkpp.xlsx
+++ b/update_price/prices/mkpp.xlsx
@@ -1354,20 +1354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17"/>
+    <col min="5" max="5" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>137</v>
       </c>
@@ -1377,21 +1377,24 @@
       <c r="C1" s="2">
         <v>153</v>
       </c>
-      <c r="D1" s="15">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <f>ROUND(F1*G1,0)</f>
-        <v>153</v>
-      </c>
-      <c r="F1" s="10">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="D1" s="2">
+        <v>153</v>
+      </c>
+      <c r="E1" s="15">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <f>ROUND(G1*H1,0)</f>
+        <v>153</v>
+      </c>
+      <c r="G1" s="10">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="5">
         <v>20488</v>
       </c>
@@ -1401,21 +1404,24 @@
       <c r="C2" s="2">
         <v>144</v>
       </c>
-      <c r="D2" s="15">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E68" si="0">ROUND(F2*G2,0)</f>
+      <c r="D2" s="2">
         <v>144</v>
       </c>
-      <c r="F2" s="11">
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F68" si="0">ROUND(G2*H2,0)</f>
+        <v>144</v>
+      </c>
+      <c r="G2" s="11">
         <v>4.7</v>
       </c>
-      <c r="G2">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+      <c r="H2">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="5">
         <v>20484</v>
       </c>
@@ -1425,21 +1431,24 @@
       <c r="C3" s="2">
         <v>505</v>
       </c>
-      <c r="D3" s="15">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
+      <c r="D3" s="2">
         <v>505</v>
       </c>
-      <c r="F3" s="11">
+      <c r="E3" s="15">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="G3" s="11">
         <v>16.5</v>
       </c>
-      <c r="G3">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+      <c r="H3">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="5">
         <v>20485</v>
       </c>
@@ -1449,21 +1458,24 @@
       <c r="C4" s="2">
         <v>624</v>
       </c>
-      <c r="D4" s="15">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
+      <c r="D4" s="2">
         <v>624</v>
       </c>
-      <c r="F4" s="11">
+      <c r="E4" s="15">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="G4" s="11">
         <v>20.399999999999999</v>
       </c>
-      <c r="G4">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
+      <c r="H4">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="5">
         <v>10487</v>
       </c>
@@ -1473,21 +1485,24 @@
       <c r="C5" s="2">
         <v>1952</v>
       </c>
-      <c r="D5" s="16">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
+      <c r="D5" s="2">
         <v>1952</v>
       </c>
-      <c r="F5" s="11">
+      <c r="E5" s="16">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>1952</v>
+      </c>
+      <c r="G5" s="11">
         <v>63.8</v>
       </c>
-      <c r="G5">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
+      <c r="H5">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="5">
         <v>10481</v>
       </c>
@@ -1497,21 +1512,24 @@
       <c r="C6" s="2">
         <v>5294</v>
       </c>
-      <c r="D6" s="16">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
+      <c r="D6" s="2">
         <v>5294</v>
       </c>
-      <c r="F6" s="11">
+      <c r="E6" s="16">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>5294</v>
+      </c>
+      <c r="G6" s="11">
         <v>173</v>
       </c>
-      <c r="G6">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+      <c r="H6">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="5">
         <v>25097</v>
       </c>
@@ -1521,21 +1539,24 @@
       <c r="C7" s="2">
         <v>184</v>
       </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
+      <c r="D7" s="2">
         <v>184</v>
       </c>
-      <c r="F7" s="12">
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="G7" s="12">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
+      <c r="H7">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
@@ -1545,21 +1566,24 @@
       <c r="C8" s="2">
         <v>704</v>
       </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
+      <c r="D8" s="2">
         <v>704</v>
       </c>
-      <c r="F8" s="13">
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>704</v>
+      </c>
+      <c r="G8" s="13">
         <v>23</v>
       </c>
-      <c r="G8">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
+      <c r="H8">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="5">
         <v>20637</v>
       </c>
@@ -1569,21 +1593,24 @@
       <c r="C9" s="2">
         <v>168</v>
       </c>
-      <c r="D9" s="16">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
+      <c r="D9" s="2">
         <v>168</v>
       </c>
-      <c r="F9" s="14">
+      <c r="E9" s="16">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="G9" s="14">
         <v>5.5</v>
       </c>
-      <c r="G9">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+      <c r="H9">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="5">
         <v>20634</v>
       </c>
@@ -1593,21 +1620,24 @@
       <c r="C10" s="2">
         <v>603</v>
       </c>
-      <c r="D10" s="16">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
+      <c r="D10" s="2">
         <v>603</v>
       </c>
-      <c r="F10" s="11">
+      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>603</v>
+      </c>
+      <c r="G10" s="11">
         <v>19.7</v>
       </c>
-      <c r="G10">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
+      <c r="H10">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="5">
         <v>20635</v>
       </c>
@@ -1617,21 +1647,24 @@
       <c r="C11" s="2">
         <v>765</v>
       </c>
-      <c r="D11" s="16">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
+      <c r="D11" s="2">
         <v>765</v>
       </c>
-      <c r="F11" s="11">
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>765</v>
+      </c>
+      <c r="G11" s="11">
         <v>25</v>
       </c>
-      <c r="G11">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75">
+      <c r="H11">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="5">
         <v>20633</v>
       </c>
@@ -1641,21 +1674,24 @@
       <c r="C12" s="2">
         <v>2387</v>
       </c>
-      <c r="D12" s="16">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
+      <c r="D12" s="2">
         <v>2387</v>
       </c>
-      <c r="F12" s="11">
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>2387</v>
+      </c>
+      <c r="G12" s="11">
         <v>78</v>
       </c>
-      <c r="G12">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75">
+      <c r="H12">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="5">
         <v>20631</v>
       </c>
@@ -1665,21 +1701,24 @@
       <c r="C13" s="2">
         <v>6695</v>
       </c>
-      <c r="D13" s="16">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
+      <c r="D13" s="2">
         <v>6695</v>
       </c>
-      <c r="F13" s="11">
+      <c r="E13" s="16">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>6695</v>
+      </c>
+      <c r="G13" s="11">
         <v>218.8</v>
       </c>
-      <c r="G13">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
+      <c r="H13">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="5">
         <v>20632</v>
       </c>
@@ -1689,21 +1728,24 @@
       <c r="C14" s="2">
         <v>20808</v>
       </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
+      <c r="D14" s="2">
         <v>20808</v>
       </c>
-      <c r="F14" s="11">
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>20808</v>
+      </c>
+      <c r="G14" s="11">
         <v>680</v>
       </c>
-      <c r="G14">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75">
+      <c r="H14">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="5">
         <v>10332</v>
       </c>
@@ -1713,21 +1755,24 @@
       <c r="C15" s="2">
         <v>165</v>
       </c>
-      <c r="D15" s="16">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
+      <c r="D15" s="2">
         <v>165</v>
       </c>
-      <c r="F15" s="11">
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="G15" s="11">
         <v>5.4</v>
       </c>
-      <c r="G15">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75">
+      <c r="H15">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="5" t="s">
         <v>139</v>
       </c>
@@ -1737,21 +1782,24 @@
       <c r="C16" s="2">
         <v>627</v>
       </c>
-      <c r="D16" s="16">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
+      <c r="D16" s="2">
         <v>627</v>
       </c>
-      <c r="F16" s="11">
+      <c r="E16" s="16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>627</v>
+      </c>
+      <c r="G16" s="11">
         <v>20.5</v>
       </c>
-      <c r="G16">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
+      <c r="H16">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="5">
         <v>21387</v>
       </c>
@@ -1761,21 +1809,24 @@
       <c r="C17" s="2">
         <v>168</v>
       </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
+      <c r="D17" s="2">
         <v>168</v>
       </c>
-      <c r="F17" s="11">
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="G17" s="11">
         <v>5.5</v>
       </c>
-      <c r="G17">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75">
+      <c r="H17">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>140</v>
       </c>
@@ -1785,21 +1836,24 @@
       <c r="C18" s="2">
         <v>643</v>
       </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
+      <c r="D18" s="2">
         <v>643</v>
       </c>
-      <c r="F18" s="11">
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>643</v>
+      </c>
+      <c r="G18" s="11">
         <v>21</v>
       </c>
-      <c r="G18">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75">
+      <c r="H18">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="5">
         <v>20198</v>
       </c>
@@ -1809,21 +1863,24 @@
       <c r="C19" s="2">
         <v>165</v>
       </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
+      <c r="D19" s="2">
         <v>165</v>
       </c>
-      <c r="F19" s="11">
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="G19" s="11">
         <v>5.4</v>
       </c>
-      <c r="G19">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75">
+      <c r="H19">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="5" t="s">
         <v>141</v>
       </c>
@@ -1833,21 +1890,24 @@
       <c r="C20" s="2">
         <v>652</v>
       </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
+      <c r="D20" s="2">
         <v>652</v>
       </c>
-      <c r="F20" s="11">
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>652</v>
+      </c>
+      <c r="G20" s="11">
         <v>21.3</v>
       </c>
-      <c r="G20">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75">
+      <c r="H20">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="5">
         <v>21407</v>
       </c>
@@ -1857,21 +1917,24 @@
       <c r="C21" s="2">
         <v>165</v>
       </c>
-      <c r="D21" s="16">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
+      <c r="D21" s="2">
         <v>165</v>
       </c>
-      <c r="F21" s="11">
+      <c r="E21" s="16">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="G21" s="11">
         <v>5.4</v>
       </c>
-      <c r="G21">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
+      <c r="H21">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="5" t="s">
         <v>142</v>
       </c>
@@ -1881,21 +1944,24 @@
       <c r="C22" s="2">
         <v>643</v>
       </c>
-      <c r="D22" s="16">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
+      <c r="D22" s="2">
         <v>643</v>
       </c>
-      <c r="F22" s="11">
+      <c r="E22" s="16">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>643</v>
+      </c>
+      <c r="G22" s="11">
         <v>21</v>
       </c>
-      <c r="G22">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
+      <c r="H22">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="5" t="s">
         <v>208</v>
       </c>
@@ -1905,21 +1971,24 @@
       <c r="C23" s="2">
         <v>6426</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="2">
+        <v>6426</v>
+      </c>
+      <c r="E23" s="16">
         <v>1</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>6426</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>210</v>
       </c>
-      <c r="G23">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75">
+      <c r="H23">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="5">
         <v>16008</v>
       </c>
@@ -1929,21 +1998,24 @@
       <c r="C24" s="2">
         <v>165</v>
       </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
+      <c r="D24" s="2">
         <v>165</v>
       </c>
-      <c r="F24" s="11">
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="G24" s="11">
         <v>5.4</v>
       </c>
-      <c r="G24">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75">
+      <c r="H24">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
@@ -1953,21 +2025,24 @@
       <c r="C25" s="2">
         <v>612</v>
       </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
+      <c r="D25" s="2">
         <v>612</v>
       </c>
-      <c r="F25" s="11">
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>612</v>
+      </c>
+      <c r="G25" s="11">
         <v>20</v>
       </c>
-      <c r="G25">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75">
+      <c r="H25">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="5">
         <v>20458</v>
       </c>
@@ -1977,21 +2052,24 @@
       <c r="C26" s="2">
         <v>153</v>
       </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="F26" s="11">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75">
+      <c r="D26" s="2">
+        <v>153</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="G26" s="11">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="5">
         <v>20459</v>
       </c>
@@ -2001,21 +2079,24 @@
       <c r="C27" s="2">
         <v>786</v>
       </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
+      <c r="D27" s="2">
         <v>786</v>
       </c>
-      <c r="F27" s="11">
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>786</v>
+      </c>
+      <c r="G27" s="11">
         <v>25.7</v>
       </c>
-      <c r="G27">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75">
+      <c r="H27">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="5">
         <v>10451</v>
       </c>
@@ -2025,21 +2106,24 @@
       <c r="C28" s="2">
         <v>7650</v>
       </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
+      <c r="D28" s="2">
         <v>7650</v>
       </c>
-      <c r="F28" s="11">
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>7650</v>
+      </c>
+      <c r="G28" s="11">
         <v>250</v>
       </c>
-      <c r="G28">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75">
+      <c r="H28">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="5">
         <v>20478</v>
       </c>
@@ -2049,21 +2133,24 @@
       <c r="C29" s="2">
         <v>181</v>
       </c>
-      <c r="D29" s="16">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
+      <c r="D29" s="2">
         <v>181</v>
       </c>
-      <c r="F29" s="11">
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="G29" s="11">
         <v>5.9</v>
       </c>
-      <c r="G29">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75">
+      <c r="H29">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="5">
         <v>20479</v>
       </c>
@@ -2073,21 +2160,24 @@
       <c r="C30" s="2">
         <v>679</v>
       </c>
-      <c r="D30" s="16">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
+      <c r="D30" s="2">
         <v>679</v>
       </c>
-      <c r="F30" s="11">
+      <c r="E30" s="16">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>679</v>
+      </c>
+      <c r="G30" s="11">
         <v>22.2</v>
       </c>
-      <c r="G30">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75">
+      <c r="H30">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="5">
         <v>20475</v>
       </c>
@@ -2097,21 +2187,24 @@
       <c r="C31" s="2">
         <v>854</v>
       </c>
-      <c r="D31" s="16">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
+      <c r="D31" s="2">
         <v>854</v>
       </c>
-      <c r="F31" s="11">
+      <c r="E31" s="16">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>854</v>
+      </c>
+      <c r="G31" s="11">
         <v>27.9</v>
       </c>
-      <c r="G31">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75">
+      <c r="H31">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="5">
         <v>10472</v>
       </c>
@@ -2121,21 +2214,24 @@
       <c r="C32" s="2">
         <v>2689</v>
       </c>
-      <c r="D32" s="16">
-        <v>5</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="2">
+        <v>2689</v>
+      </c>
+      <c r="E32" s="16">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>2693</v>
       </c>
-      <c r="F32" s="11">
+      <c r="G32" s="11">
         <v>88</v>
       </c>
-      <c r="G32">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75">
+      <c r="H32">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="5">
         <v>10471</v>
       </c>
@@ -2145,21 +2241,24 @@
       <c r="C33" s="2">
         <v>7497</v>
       </c>
-      <c r="D33" s="16">
-        <v>5</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
+      <c r="D33" s="2">
         <v>7497</v>
       </c>
-      <c r="F33" s="11">
+      <c r="E33" s="16">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>7497</v>
+      </c>
+      <c r="G33" s="11">
         <v>245</v>
       </c>
-      <c r="G33">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75">
+      <c r="H33">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="5">
         <v>20470</v>
       </c>
@@ -2169,21 +2268,24 @@
       <c r="C34" s="2">
         <v>25398</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="2">
+        <v>25398</v>
+      </c>
+      <c r="E34" s="16">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>25398</v>
       </c>
-      <c r="F34" s="11">
+      <c r="G34" s="11">
         <v>830</v>
       </c>
-      <c r="G34">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75">
+      <c r="H34">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="5">
         <v>22007</v>
       </c>
@@ -2193,21 +2295,24 @@
       <c r="C35" s="2">
         <v>153</v>
       </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="F35" s="11">
-        <v>5</v>
-      </c>
-      <c r="G35">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75">
+      <c r="D35" s="2">
+        <v>153</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="G35" s="11">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="5">
         <v>22004</v>
       </c>
@@ -2217,21 +2322,24 @@
       <c r="C36" s="2">
         <v>600</v>
       </c>
-      <c r="D36" s="16">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
+      <c r="D36" s="2">
         <v>600</v>
       </c>
-      <c r="F36" s="11">
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G36" s="11">
         <v>19.600000000000001</v>
       </c>
-      <c r="G36">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75">
+      <c r="H36">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="5">
         <v>22003</v>
       </c>
@@ -2241,21 +2349,24 @@
       <c r="C37" s="2">
         <v>1958</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="2">
+        <v>1958</v>
+      </c>
+      <c r="E37" s="16">
         <v>3</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>1958</v>
       </c>
-      <c r="F37" s="11">
+      <c r="G37" s="11">
         <v>64</v>
       </c>
-      <c r="G37">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75">
+      <c r="H37">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="5">
         <v>22001</v>
       </c>
@@ -2265,21 +2376,24 @@
       <c r="C38" s="2">
         <v>5202</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="2">
+        <v>5202</v>
+      </c>
+      <c r="E38" s="16">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>5202</v>
       </c>
-      <c r="F38" s="11">
+      <c r="G38" s="11">
         <v>170</v>
       </c>
-      <c r="G38">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75">
+      <c r="H38">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="5">
         <v>22000</v>
       </c>
@@ -2289,21 +2403,24 @@
       <c r="C39" s="2">
         <v>19247</v>
       </c>
-      <c r="D39" s="16">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
+      <c r="D39" s="2">
         <v>19247</v>
       </c>
-      <c r="F39" s="11">
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>19247</v>
+      </c>
+      <c r="G39" s="11">
         <v>629</v>
       </c>
-      <c r="G39">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75">
+      <c r="H39">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="5">
         <v>83212365924</v>
       </c>
@@ -2313,21 +2430,24 @@
       <c r="C40" s="2">
         <v>337</v>
       </c>
-      <c r="D40" s="16">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
+      <c r="D40" s="2">
         <v>337</v>
       </c>
-      <c r="F40" s="11">
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="G40" s="11">
         <v>11</v>
       </c>
-      <c r="G40">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75">
+      <c r="H40">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="5">
         <v>83212405672</v>
       </c>
@@ -2337,21 +2457,24 @@
       <c r="C41" s="2">
         <v>9180</v>
       </c>
-      <c r="D41" s="16">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
+      <c r="D41" s="2">
         <v>9180</v>
       </c>
-      <c r="F41" s="11">
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>9180</v>
+      </c>
+      <c r="G41" s="11">
         <v>300</v>
       </c>
-      <c r="G41">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75">
+      <c r="H41">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="5">
         <v>83212365925</v>
       </c>
@@ -2361,21 +2484,24 @@
       <c r="C42" s="2">
         <v>358</v>
       </c>
-      <c r="D42" s="16">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
+      <c r="D42" s="2">
         <v>358</v>
       </c>
-      <c r="F42" s="8">
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="G42" s="8">
         <v>11.7</v>
       </c>
-      <c r="G42">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75">
+      <c r="H42">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="5">
         <v>83212405670</v>
       </c>
@@ -2385,21 +2511,24 @@
       <c r="C43" s="2">
         <v>9180</v>
       </c>
-      <c r="D43" s="16">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
+      <c r="D43" s="2">
         <v>9180</v>
       </c>
-      <c r="F43" s="8">
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>9180</v>
+      </c>
+      <c r="G43" s="8">
         <v>300</v>
       </c>
-      <c r="G43">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75">
+      <c r="H43">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="5">
         <v>83212365929</v>
       </c>
@@ -2409,21 +2538,24 @@
       <c r="C44" s="2">
         <v>337</v>
       </c>
-      <c r="D44" s="16">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
+      <c r="D44" s="2">
         <v>337</v>
       </c>
-      <c r="F44" s="8">
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="G44" s="8">
         <v>11</v>
       </c>
-      <c r="G44">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75">
+      <c r="H44">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="5">
         <v>83212405099</v>
       </c>
@@ -2433,21 +2565,24 @@
       <c r="C45" s="2">
         <v>15300</v>
       </c>
-      <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
+      <c r="D45" s="2">
         <v>15300</v>
       </c>
-      <c r="F45" s="8">
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>15300</v>
+      </c>
+      <c r="G45" s="8">
         <v>500</v>
       </c>
-      <c r="G45">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75">
+      <c r="H45">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="5">
         <v>83212365933</v>
       </c>
@@ -2457,21 +2592,24 @@
       <c r="C46" s="2">
         <v>257</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="2">
+        <v>257</v>
+      </c>
+      <c r="E46" s="16">
         <v>9</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="F46" s="8">
+      <c r="G46" s="8">
         <v>8.4</v>
       </c>
-      <c r="G46">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75">
+      <c r="H46">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="5">
         <v>83212405100</v>
       </c>
@@ -2481,21 +2619,24 @@
       <c r="C47" s="2">
         <v>30600</v>
       </c>
-      <c r="D47" s="16">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
+      <c r="D47" s="2">
         <v>30600</v>
       </c>
-      <c r="F47" s="8">
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>30600</v>
+      </c>
+      <c r="G47" s="8">
         <v>1000</v>
       </c>
-      <c r="G47">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75">
+      <c r="H47">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="5">
         <v>83212365935</v>
       </c>
@@ -2505,21 +2646,24 @@
       <c r="C48" s="2">
         <v>337</v>
       </c>
-      <c r="D48" s="16">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="0"/>
+      <c r="D48" s="2">
         <v>337</v>
       </c>
-      <c r="F48" s="8">
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="G48" s="8">
         <v>11</v>
       </c>
-      <c r="G48">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75">
+      <c r="H48">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="5">
         <v>83212405666</v>
       </c>
@@ -2529,21 +2673,24 @@
       <c r="C49" s="2">
         <v>15300</v>
       </c>
-      <c r="D49" s="16">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="0"/>
+      <c r="D49" s="2">
         <v>15300</v>
       </c>
-      <c r="F49" s="8">
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>15300</v>
+      </c>
+      <c r="G49" s="8">
         <v>500</v>
       </c>
-      <c r="G49">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75">
+      <c r="H49">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="5">
         <v>83212405097</v>
       </c>
@@ -2553,21 +2700,24 @@
       <c r="C50" s="2">
         <v>33660</v>
       </c>
-      <c r="D50" s="16">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="0"/>
+      <c r="D50" s="2">
         <v>33660</v>
       </c>
-      <c r="F50" s="8">
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>33660</v>
+      </c>
+      <c r="G50" s="8">
         <v>1100</v>
       </c>
-      <c r="G50">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75">
+      <c r="H50">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="5">
         <v>83212365926</v>
       </c>
@@ -2577,21 +2727,24 @@
       <c r="C51" s="2">
         <v>153</v>
       </c>
-      <c r="D51" s="16">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="F51" s="8">
-        <v>5</v>
-      </c>
-      <c r="G51">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75">
+      <c r="D51" s="2">
+        <v>153</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="G51" s="8">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="5">
         <v>83212405669</v>
       </c>
@@ -2601,21 +2754,24 @@
       <c r="C52" s="2">
         <v>9180</v>
       </c>
-      <c r="D52" s="16">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="0"/>
+      <c r="D52" s="2">
         <v>9180</v>
       </c>
-      <c r="F52" s="8">
+      <c r="E52" s="16">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>9180</v>
+      </c>
+      <c r="G52" s="8">
         <v>300</v>
       </c>
-      <c r="G52">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75">
+      <c r="H52">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="5">
         <v>83212405096</v>
       </c>
@@ -2625,21 +2781,24 @@
       <c r="C53" s="2">
         <v>33660</v>
       </c>
-      <c r="D53" s="16">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="0"/>
+      <c r="D53" s="2">
         <v>33660</v>
       </c>
-      <c r="F53" s="8">
+      <c r="E53" s="16">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>33660</v>
+      </c>
+      <c r="G53" s="8">
         <v>1100</v>
       </c>
-      <c r="G53">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75">
+      <c r="H53">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="5" t="s">
         <v>230</v>
       </c>
@@ -2649,21 +2808,24 @@
       <c r="C54" s="2">
         <v>701</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="2">
+        <v>701</v>
+      </c>
+      <c r="E54" s="16">
         <v>1</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <f t="shared" si="0"/>
         <v>701</v>
       </c>
-      <c r="F54" s="8">
+      <c r="G54" s="8">
         <v>22.9</v>
       </c>
-      <c r="G54">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75">
+      <c r="H54">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="5" t="s">
         <v>231</v>
       </c>
@@ -2673,21 +2835,24 @@
       <c r="C55" s="2">
         <v>854</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="2">
+        <v>854</v>
+      </c>
+      <c r="E55" s="16">
         <v>1</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <f t="shared" si="0"/>
         <v>854</v>
       </c>
-      <c r="F55" s="8">
+      <c r="G55" s="8">
         <v>27.9</v>
       </c>
-      <c r="G55">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75">
+      <c r="H55">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="5" t="s">
         <v>232</v>
       </c>
@@ -2697,21 +2862,24 @@
       <c r="C56" s="2">
         <v>768</v>
       </c>
-      <c r="D56" s="16">
-        <v>5</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="0"/>
+      <c r="D56" s="2">
         <v>768</v>
       </c>
-      <c r="F56" s="8">
+      <c r="E56" s="16">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="G56" s="8">
         <v>25.1</v>
       </c>
-      <c r="G56">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75">
+      <c r="H56">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="5">
         <v>58674</v>
       </c>
@@ -2721,21 +2889,24 @@
       <c r="C57" s="2">
         <v>1025</v>
       </c>
-      <c r="D57" s="16">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2">
-        <f t="shared" si="0"/>
+      <c r="D57" s="2">
         <v>1025</v>
       </c>
-      <c r="F57" s="8">
+      <c r="E57" s="16">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="G57" s="8">
         <v>33.5</v>
       </c>
-      <c r="G57">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75">
+      <c r="H57">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="6">
         <v>201552</v>
       </c>
@@ -2745,21 +2916,24 @@
       <c r="C58" s="2">
         <v>383</v>
       </c>
-      <c r="D58" s="16">
-        <v>5</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="0"/>
+      <c r="D58" s="2">
         <v>383</v>
       </c>
-      <c r="F58" s="8">
+      <c r="E58" s="16">
+        <v>5</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>383</v>
+      </c>
+      <c r="G58" s="8">
         <v>12.5</v>
       </c>
-      <c r="G58">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75">
+      <c r="H58">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75">
       <c r="A59" s="6">
         <v>201554</v>
       </c>
@@ -2769,21 +2943,24 @@
       <c r="C59" s="2">
         <v>468</v>
       </c>
-      <c r="D59" s="16">
-        <v>5</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="0"/>
+      <c r="D59" s="2">
         <v>468</v>
       </c>
-      <c r="F59" s="8">
+      <c r="E59" s="16">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="G59" s="8">
         <v>15.3</v>
       </c>
-      <c r="G59">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75">
+      <c r="H59">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="5">
         <v>201558</v>
       </c>
@@ -2793,21 +2970,24 @@
       <c r="C60" s="2">
         <v>153</v>
       </c>
-      <c r="D60" s="16">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="F60" s="8">
-        <v>5</v>
-      </c>
-      <c r="G60">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75">
+      <c r="D60" s="2">
+        <v>153</v>
+      </c>
+      <c r="E60" s="16">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="G60" s="8">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="5">
         <v>201553</v>
       </c>
@@ -2817,21 +2997,24 @@
       <c r="C61" s="2">
         <v>465</v>
       </c>
-      <c r="D61" s="16">
-        <v>5</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="0"/>
+      <c r="D61" s="2">
         <v>465</v>
       </c>
-      <c r="F61" s="8">
+      <c r="E61" s="16">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="G61" s="8">
         <v>15.2</v>
       </c>
-      <c r="G61">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75">
+      <c r="H61">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="5">
         <v>194875</v>
       </c>
@@ -2841,21 +3024,24 @@
       <c r="C62" s="2">
         <v>147</v>
       </c>
-      <c r="D62" s="16">
-        <v>5</v>
-      </c>
-      <c r="E62" s="2">
-        <f t="shared" si="0"/>
+      <c r="D62" s="2">
         <v>147</v>
       </c>
-      <c r="F62" s="8">
+      <c r="E62" s="16">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="G62" s="8">
         <v>4.8</v>
       </c>
-      <c r="G62">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75">
+      <c r="H62">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="5">
         <v>194873</v>
       </c>
@@ -2865,21 +3051,24 @@
       <c r="C63" s="2">
         <v>428</v>
       </c>
-      <c r="D63" s="16">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="0"/>
+      <c r="D63" s="2">
         <v>428</v>
       </c>
-      <c r="F63" s="8">
+      <c r="E63" s="16">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+      <c r="G63" s="8">
         <v>14</v>
       </c>
-      <c r="G63">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75">
+      <c r="H63">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="5">
         <v>194872</v>
       </c>
@@ -2889,21 +3078,24 @@
       <c r="C64" s="2">
         <v>536</v>
       </c>
-      <c r="D64" s="16">
-        <v>5</v>
-      </c>
-      <c r="E64" s="2">
-        <f t="shared" si="0"/>
+      <c r="D64" s="2">
         <v>536</v>
       </c>
-      <c r="F64" s="8">
+      <c r="E64" s="16">
+        <v>5</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>536</v>
+      </c>
+      <c r="G64" s="8">
         <v>17.5</v>
       </c>
-      <c r="G64">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.25">
+      <c r="H64">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.25">
       <c r="A65" s="5">
         <v>194832</v>
       </c>
@@ -2913,21 +3105,24 @@
       <c r="C65" s="2">
         <v>153</v>
       </c>
-      <c r="D65" s="16">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="F65" s="9">
-        <v>5</v>
-      </c>
-      <c r="G65">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="17.25">
+      <c r="D65" s="2">
+        <v>153</v>
+      </c>
+      <c r="E65" s="16">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="G65" s="9">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25">
       <c r="A66" s="5">
         <v>196133</v>
       </c>
@@ -2937,21 +3132,24 @@
       <c r="C66" s="2">
         <v>520</v>
       </c>
-      <c r="D66" s="16">
-        <v>5</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="0"/>
+      <c r="D66" s="2">
         <v>520</v>
       </c>
-      <c r="F66" s="9">
+      <c r="E66" s="16">
+        <v>5</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="G66" s="9">
         <v>17</v>
       </c>
-      <c r="G66">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="17.25">
+      <c r="H66">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.25">
       <c r="A67" s="5">
         <v>194839</v>
       </c>
@@ -2961,21 +3159,24 @@
       <c r="C67" s="2">
         <v>618</v>
       </c>
-      <c r="D67" s="16">
-        <v>5</v>
-      </c>
-      <c r="E67" s="2">
-        <f t="shared" si="0"/>
+      <c r="D67" s="2">
         <v>618</v>
       </c>
-      <c r="F67" s="9">
+      <c r="E67" s="16">
+        <v>5</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+      <c r="G67" s="9">
         <v>20.2</v>
       </c>
-      <c r="G67">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75">
+      <c r="H67">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="5">
         <v>194849</v>
       </c>
@@ -2985,21 +3186,24 @@
       <c r="C68" s="2">
         <v>159</v>
       </c>
-      <c r="D68" s="16">
-        <v>5</v>
-      </c>
-      <c r="E68" s="2">
-        <f t="shared" si="0"/>
+      <c r="D68" s="2">
         <v>159</v>
       </c>
-      <c r="F68" s="8">
+      <c r="E68" s="16">
+        <v>5</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="G68" s="8">
         <v>5.2</v>
       </c>
-      <c r="G68">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75">
+      <c r="H68">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="5">
         <v>194878</v>
       </c>
@@ -3009,21 +3213,24 @@
       <c r="C69" s="2">
         <v>520</v>
       </c>
-      <c r="D69" s="16">
-        <v>5</v>
-      </c>
-      <c r="E69" s="2">
-        <f t="shared" ref="E69:E142" si="1">ROUND(F69*G69,0)</f>
+      <c r="D69" s="2">
         <v>520</v>
       </c>
-      <c r="F69" s="8">
+      <c r="E69" s="16">
+        <v>5</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ref="F69:F142" si="1">ROUND(G69*H69,0)</f>
+        <v>520</v>
+      </c>
+      <c r="G69" s="8">
         <v>17</v>
       </c>
-      <c r="G69">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75">
+      <c r="H69">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="5">
         <v>194877</v>
       </c>
@@ -3033,21 +3240,24 @@
       <c r="C70" s="2">
         <v>643</v>
       </c>
-      <c r="D70" s="16">
-        <v>5</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="1"/>
+      <c r="D70" s="2">
         <v>643</v>
       </c>
-      <c r="F70" s="8">
+      <c r="E70" s="16">
+        <v>5</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="1"/>
+        <v>643</v>
+      </c>
+      <c r="G70" s="8">
         <v>21</v>
       </c>
-      <c r="G70">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75">
+      <c r="H70">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="5">
         <v>194906</v>
       </c>
@@ -3057,21 +3267,24 @@
       <c r="C71" s="2">
         <v>174</v>
       </c>
-      <c r="D71" s="16">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="1"/>
+      <c r="D71" s="2">
         <v>174</v>
       </c>
-      <c r="F71" s="8">
+      <c r="E71" s="16">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="G71" s="8">
         <v>5.7</v>
       </c>
-      <c r="G71">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75">
+      <c r="H71">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="5">
         <v>194908</v>
       </c>
@@ -3081,21 +3294,24 @@
       <c r="C72" s="2">
         <v>753</v>
       </c>
-      <c r="D72" s="16">
-        <v>5</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="1"/>
+      <c r="D72" s="2">
         <v>753</v>
       </c>
-      <c r="F72" s="8">
+      <c r="E72" s="16">
+        <v>5</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="1"/>
+        <v>753</v>
+      </c>
+      <c r="G72" s="8">
         <v>24.6</v>
       </c>
-      <c r="G72">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75">
+      <c r="H72">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="5" t="s">
         <v>144</v>
       </c>
@@ -3105,21 +3321,24 @@
       <c r="C73" s="2">
         <v>171</v>
       </c>
-      <c r="D73" s="16">
-        <v>5</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" si="1"/>
+      <c r="D73" s="2">
         <v>171</v>
       </c>
-      <c r="F73" s="8">
+      <c r="E73" s="16">
+        <v>5</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="G73" s="8">
         <v>5.6</v>
       </c>
-      <c r="G73">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75">
+      <c r="H73">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="5" t="s">
         <v>145</v>
       </c>
@@ -3129,21 +3348,24 @@
       <c r="C74" s="2">
         <v>633</v>
       </c>
-      <c r="D74" s="16">
-        <v>5</v>
-      </c>
-      <c r="E74" s="2">
-        <f t="shared" si="1"/>
+      <c r="D74" s="2">
         <v>633</v>
       </c>
-      <c r="F74" s="8">
+      <c r="E74" s="16">
+        <v>5</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="1"/>
+        <v>633</v>
+      </c>
+      <c r="G74" s="8">
         <v>20.7</v>
       </c>
-      <c r="G74">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75">
+      <c r="H74">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="5" t="s">
         <v>146</v>
       </c>
@@ -3153,21 +3375,24 @@
       <c r="C75" s="2">
         <v>153</v>
       </c>
-      <c r="D75" s="16">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F75" s="8">
-        <v>5</v>
-      </c>
-      <c r="G75">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75">
+      <c r="D75" s="2">
+        <v>153</v>
+      </c>
+      <c r="E75" s="16">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G75" s="8">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="5" t="s">
         <v>147</v>
       </c>
@@ -3177,21 +3402,24 @@
       <c r="C76" s="2">
         <v>731</v>
       </c>
-      <c r="D76" s="16">
-        <v>5</v>
-      </c>
-      <c r="E76" s="2">
-        <f t="shared" si="1"/>
+      <c r="D76" s="2">
         <v>731</v>
       </c>
-      <c r="F76" s="8">
+      <c r="E76" s="16">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="G76" s="8">
         <v>23.89</v>
       </c>
-      <c r="G76">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75">
+      <c r="H76">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="5">
         <v>1942000</v>
       </c>
@@ -3201,21 +3429,24 @@
       <c r="C77" s="2">
         <v>139</v>
       </c>
-      <c r="D77" s="16">
-        <v>5</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" si="1"/>
+      <c r="D77" s="2">
         <v>139</v>
       </c>
-      <c r="F77" s="8">
+      <c r="E77" s="16">
+        <v>5</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="G77" s="8">
         <v>4.54</v>
       </c>
-      <c r="G77">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75">
+      <c r="H77">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="5" t="s">
         <v>266</v>
       </c>
@@ -3225,21 +3456,24 @@
       <c r="C78" s="2">
         <v>471</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="2">
+        <v>471</v>
+      </c>
+      <c r="E78" s="16">
         <v>1</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <f t="shared" si="1"/>
         <v>471</v>
       </c>
-      <c r="F78" s="8">
+      <c r="G78" s="8">
         <v>15.4</v>
       </c>
-      <c r="G78">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75">
+      <c r="H78">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="5">
         <v>1942003</v>
       </c>
@@ -3249,21 +3483,24 @@
       <c r="C79" s="2">
         <v>526</v>
       </c>
-      <c r="D79" s="16">
-        <v>5</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="1"/>
+      <c r="D79" s="2">
         <v>526</v>
       </c>
-      <c r="F79" s="8">
+      <c r="E79" s="16">
+        <v>5</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="G79" s="8">
         <v>17.2</v>
       </c>
-      <c r="G79">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75">
+      <c r="H79">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="5">
         <v>1942043</v>
       </c>
@@ -3273,21 +3510,24 @@
       <c r="C80" s="2">
         <v>122</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="2">
+        <v>122</v>
+      </c>
+      <c r="E80" s="16">
         <v>1</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="F80" s="8">
+      <c r="G80" s="8">
         <v>4</v>
       </c>
-      <c r="G80">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75">
+      <c r="H80">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="5" t="s">
         <v>267</v>
       </c>
@@ -3297,21 +3537,24 @@
       <c r="C81" s="2">
         <v>352</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="2">
+        <v>352</v>
+      </c>
+      <c r="E81" s="16">
         <v>1</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="F81" s="8">
+      <c r="G81" s="8">
         <v>11.5</v>
       </c>
-      <c r="G81">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75">
+      <c r="H81">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="5">
         <v>1942046</v>
       </c>
@@ -3321,21 +3564,24 @@
       <c r="C82" s="2">
         <v>398</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="2">
+        <v>398</v>
+      </c>
+      <c r="E82" s="16">
         <v>1</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82" s="2">
         <f t="shared" si="1"/>
         <v>398</v>
       </c>
-      <c r="F82" s="8">
+      <c r="G82" s="8">
         <v>13</v>
       </c>
-      <c r="G82">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75">
+      <c r="H82">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="5" t="s">
         <v>148</v>
       </c>
@@ -3345,21 +3591,24 @@
       <c r="C83" s="2">
         <v>153</v>
       </c>
-      <c r="D83" s="16">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F83" s="8">
-        <v>5</v>
-      </c>
-      <c r="G83">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75">
+      <c r="D83" s="2">
+        <v>153</v>
+      </c>
+      <c r="E83" s="16">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G83" s="8">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="5" t="s">
         <v>149</v>
       </c>
@@ -3369,21 +3618,24 @@
       <c r="C84" s="2">
         <v>765</v>
       </c>
-      <c r="D84" s="16">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2">
-        <f t="shared" si="1"/>
+      <c r="D84" s="2">
         <v>765</v>
       </c>
-      <c r="F84" s="8">
+      <c r="E84" s="16">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="G84" s="8">
         <v>25</v>
       </c>
-      <c r="G84">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75">
+      <c r="H84">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="5" t="s">
         <v>150</v>
       </c>
@@ -3393,21 +3645,24 @@
       <c r="C85" s="2">
         <v>918</v>
       </c>
-      <c r="D85" s="16">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <f t="shared" si="1"/>
+      <c r="D85" s="2">
         <v>918</v>
       </c>
-      <c r="F85" s="8">
+      <c r="E85" s="16">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="1"/>
+        <v>918</v>
+      </c>
+      <c r="G85" s="8">
         <v>30</v>
       </c>
-      <c r="G85">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75">
+      <c r="H85">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="5" t="s">
         <v>151</v>
       </c>
@@ -3417,21 +3672,24 @@
       <c r="C86" s="2">
         <v>168</v>
       </c>
-      <c r="D86" s="16">
-        <v>5</v>
-      </c>
-      <c r="E86" s="2">
-        <f t="shared" si="1"/>
+      <c r="D86" s="2">
         <v>168</v>
       </c>
-      <c r="F86" s="8">
+      <c r="E86" s="16">
+        <v>5</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="G86" s="8">
         <v>5.5</v>
       </c>
-      <c r="G86">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75">
+      <c r="H86">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="5" t="s">
         <v>152</v>
       </c>
@@ -3441,21 +3699,24 @@
       <c r="C87" s="2">
         <v>750</v>
       </c>
-      <c r="D87" s="16">
-        <v>5</v>
-      </c>
-      <c r="E87" s="2">
-        <f t="shared" si="1"/>
+      <c r="D87" s="2">
         <v>750</v>
       </c>
-      <c r="F87" s="8">
+      <c r="E87" s="16">
+        <v>5</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="G87" s="8">
         <v>24.5</v>
       </c>
-      <c r="G87">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75">
+      <c r="H87">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="5" t="s">
         <v>153</v>
       </c>
@@ -3465,21 +3726,24 @@
       <c r="C88" s="2">
         <v>153</v>
       </c>
-      <c r="D88" s="16">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F88" s="8">
-        <v>5</v>
-      </c>
-      <c r="G88">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75">
+      <c r="D88" s="2">
+        <v>153</v>
+      </c>
+      <c r="E88" s="16">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G88" s="8">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="5" t="s">
         <v>154</v>
       </c>
@@ -3489,21 +3753,24 @@
       <c r="C89" s="2">
         <v>168</v>
       </c>
-      <c r="D89" s="16">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <f t="shared" si="1"/>
+      <c r="D89" s="2">
         <v>168</v>
       </c>
-      <c r="F89" s="8">
+      <c r="E89" s="16">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="G89" s="8">
         <v>5.5</v>
       </c>
-      <c r="G89">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75">
+      <c r="H89">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="5" t="s">
         <v>223</v>
       </c>
@@ -3513,21 +3780,24 @@
       <c r="C90" s="2">
         <v>444</v>
       </c>
-      <c r="D90" s="16">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" si="1"/>
+      <c r="D90" s="2">
         <v>444</v>
       </c>
-      <c r="F90" s="8">
+      <c r="E90" s="16">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="1"/>
+        <v>444</v>
+      </c>
+      <c r="G90" s="8">
         <v>14.5</v>
       </c>
-      <c r="G90">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75">
+      <c r="H90">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="5" t="s">
         <v>224</v>
       </c>
@@ -3537,21 +3807,24 @@
       <c r="C91" s="2">
         <v>184</v>
       </c>
-      <c r="D91" s="16">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <f t="shared" si="1"/>
+      <c r="D91" s="2">
         <v>184</v>
       </c>
-      <c r="F91" s="8">
+      <c r="E91" s="16">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="G91" s="8">
         <v>6</v>
       </c>
-      <c r="G91">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75">
+      <c r="H91">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="5" t="s">
         <v>225</v>
       </c>
@@ -3561,21 +3834,24 @@
       <c r="C92" s="2">
         <v>649</v>
       </c>
-      <c r="D92" s="16">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <f t="shared" si="1"/>
+      <c r="D92" s="2">
         <v>649</v>
       </c>
-      <c r="F92" s="8">
+      <c r="E92" s="16">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="1"/>
+        <v>649</v>
+      </c>
+      <c r="G92" s="8">
         <v>21.2</v>
       </c>
-      <c r="G92">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75">
+      <c r="H92">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="5" t="s">
         <v>226</v>
       </c>
@@ -3585,21 +3861,24 @@
       <c r="C93" s="2">
         <v>699</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="2">
+        <v>699</v>
+      </c>
+      <c r="E93" s="16">
         <v>1</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93" s="2">
         <f t="shared" si="1"/>
         <v>699</v>
       </c>
-      <c r="F93" s="8">
+      <c r="G93" s="8">
         <v>22.85</v>
       </c>
-      <c r="G93">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75">
+      <c r="H93">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="5" t="s">
         <v>155</v>
       </c>
@@ -3609,21 +3888,24 @@
       <c r="C94" s="2">
         <v>153</v>
       </c>
-      <c r="D94" s="16">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F94" s="8">
-        <v>5</v>
-      </c>
-      <c r="G94">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75">
+      <c r="D94" s="2">
+        <v>153</v>
+      </c>
+      <c r="E94" s="16">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G94" s="8">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="5" t="s">
         <v>156</v>
       </c>
@@ -3633,21 +3915,24 @@
       <c r="C95" s="2">
         <v>459</v>
       </c>
-      <c r="D95" s="16">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2">
-        <f t="shared" si="1"/>
+      <c r="D95" s="2">
         <v>459</v>
       </c>
-      <c r="F95" s="8">
+      <c r="E95" s="16">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+      <c r="G95" s="8">
         <v>15</v>
       </c>
-      <c r="G95">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75">
+      <c r="H95">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="5" t="s">
         <v>157</v>
       </c>
@@ -3657,21 +3942,24 @@
       <c r="C96" s="2">
         <v>612</v>
       </c>
-      <c r="D96" s="16">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
-        <f t="shared" si="1"/>
+      <c r="D96" s="2">
         <v>612</v>
       </c>
-      <c r="F96" s="8">
+      <c r="E96" s="16">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="G96" s="8">
         <v>20</v>
       </c>
-      <c r="G96">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75">
+      <c r="H96">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="5" t="s">
         <v>158</v>
       </c>
@@ -3681,21 +3969,24 @@
       <c r="C97" s="2">
         <v>153</v>
       </c>
-      <c r="D97" s="16">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F97" s="8">
-        <v>5</v>
-      </c>
-      <c r="G97">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75">
+      <c r="D97" s="2">
+        <v>153</v>
+      </c>
+      <c r="E97" s="16">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G97" s="8">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="5" t="s">
         <v>159</v>
       </c>
@@ -3705,21 +3996,24 @@
       <c r="C98" s="2">
         <v>459</v>
       </c>
-      <c r="D98" s="16">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <f t="shared" si="1"/>
+      <c r="D98" s="2">
         <v>459</v>
       </c>
-      <c r="F98" s="8">
+      <c r="E98" s="16">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+      <c r="G98" s="8">
         <v>15</v>
       </c>
-      <c r="G98">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75">
+      <c r="H98">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="5" t="s">
         <v>160</v>
       </c>
@@ -3729,21 +4023,24 @@
       <c r="C99" s="2">
         <v>612</v>
       </c>
-      <c r="D99" s="16">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
-        <f t="shared" si="1"/>
+      <c r="D99" s="2">
         <v>612</v>
       </c>
-      <c r="F99" s="8">
+      <c r="E99" s="16">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="G99" s="8">
         <v>20</v>
       </c>
-      <c r="G99">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.75">
+      <c r="H99">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="5" t="s">
         <v>161</v>
       </c>
@@ -3753,21 +4050,24 @@
       <c r="C100" s="2">
         <v>459</v>
       </c>
-      <c r="D100" s="16">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
-        <f t="shared" si="1"/>
+      <c r="D100" s="2">
         <v>459</v>
       </c>
-      <c r="F100" s="8">
+      <c r="E100" s="16">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+      <c r="G100" s="8">
         <v>15</v>
       </c>
-      <c r="G100">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75">
+      <c r="H100">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="5" t="s">
         <v>162</v>
       </c>
@@ -3777,21 +4077,24 @@
       <c r="C101" s="2">
         <v>612</v>
       </c>
-      <c r="D101" s="16">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <f t="shared" si="1"/>
+      <c r="D101" s="2">
         <v>612</v>
       </c>
-      <c r="F101" s="8">
+      <c r="E101" s="16">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="G101" s="8">
         <v>20</v>
       </c>
-      <c r="G101">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75">
+      <c r="H101">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="5" t="s">
         <v>163</v>
       </c>
@@ -3801,21 +4104,24 @@
       <c r="C102" s="2">
         <v>153</v>
       </c>
-      <c r="D102" s="16">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F102" s="8">
-        <v>5</v>
-      </c>
-      <c r="G102">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75">
+      <c r="D102" s="2">
+        <v>153</v>
+      </c>
+      <c r="E102" s="16">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G102" s="8">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="5" t="s">
         <v>164</v>
       </c>
@@ -3825,21 +4131,24 @@
       <c r="C103" s="2">
         <v>153</v>
       </c>
-      <c r="D103" s="16">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F103" s="8">
-        <v>5</v>
-      </c>
-      <c r="G103">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75">
+      <c r="D103" s="2">
+        <v>153</v>
+      </c>
+      <c r="E103" s="16">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G103" s="8">
+        <v>5</v>
+      </c>
+      <c r="H103">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="5" t="s">
         <v>165</v>
       </c>
@@ -3849,21 +4158,24 @@
       <c r="C104" s="2">
         <v>612</v>
       </c>
-      <c r="D104" s="16">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
-        <f t="shared" si="1"/>
+      <c r="D104" s="2">
         <v>612</v>
       </c>
-      <c r="F104" s="8">
+      <c r="E104" s="16">
+        <v>0</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="G104" s="8">
         <v>20</v>
       </c>
-      <c r="G104">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75">
+      <c r="H104">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="5" t="s">
         <v>166</v>
       </c>
@@ -3873,21 +4185,24 @@
       <c r="C105" s="2">
         <v>153</v>
       </c>
-      <c r="D105" s="16">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F105" s="8">
-        <v>5</v>
-      </c>
-      <c r="G105">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75">
+      <c r="D105" s="2">
+        <v>153</v>
+      </c>
+      <c r="E105" s="16">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G105" s="8">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="5" t="s">
         <v>167</v>
       </c>
@@ -3897,21 +4212,24 @@
       <c r="C106" s="2">
         <v>459</v>
       </c>
-      <c r="D106" s="16">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <f t="shared" si="1"/>
+      <c r="D106" s="2">
         <v>459</v>
       </c>
-      <c r="F106" s="8">
+      <c r="E106" s="16">
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+      <c r="G106" s="8">
         <v>15</v>
       </c>
-      <c r="G106">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75">
+      <c r="H106">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="5" t="s">
         <v>168</v>
       </c>
@@ -3921,21 +4239,24 @@
       <c r="C107" s="2">
         <v>153</v>
       </c>
-      <c r="D107" s="16">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F107" s="8">
-        <v>5</v>
-      </c>
-      <c r="G107">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75">
+      <c r="D107" s="2">
+        <v>153</v>
+      </c>
+      <c r="E107" s="16">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G107" s="8">
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="5" t="s">
         <v>169</v>
       </c>
@@ -3945,21 +4266,24 @@
       <c r="C108" s="2">
         <v>646</v>
       </c>
-      <c r="D108" s="16">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
-        <f t="shared" si="1"/>
+      <c r="D108" s="2">
         <v>646</v>
       </c>
-      <c r="F108" s="8">
+      <c r="E108" s="16">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="1"/>
+        <v>646</v>
+      </c>
+      <c r="G108" s="8">
         <v>21.1</v>
       </c>
-      <c r="G108">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75">
+      <c r="H108">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="5" t="s">
         <v>170</v>
       </c>
@@ -3969,21 +4293,24 @@
       <c r="C109" s="2">
         <v>184</v>
       </c>
-      <c r="D109" s="16">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
-        <f t="shared" si="1"/>
+      <c r="D109" s="2">
         <v>184</v>
       </c>
-      <c r="F109" s="8">
+      <c r="E109" s="16">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="G109" s="8">
         <v>6</v>
       </c>
-      <c r="G109">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75">
+      <c r="H109">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="5" t="s">
         <v>171</v>
       </c>
@@ -3993,21 +4320,24 @@
       <c r="C110" s="2">
         <v>765</v>
       </c>
-      <c r="D110" s="16">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
-        <f t="shared" si="1"/>
+      <c r="D110" s="2">
         <v>765</v>
       </c>
-      <c r="F110" s="8">
+      <c r="E110" s="16">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="G110" s="8">
         <v>25</v>
       </c>
-      <c r="G110">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75">
+      <c r="H110">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="5" t="s">
         <v>239</v>
       </c>
@@ -4017,21 +4347,24 @@
       <c r="C111" s="2">
         <v>245</v>
       </c>
-      <c r="D111" s="16">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2">
-        <f t="shared" si="1"/>
+      <c r="D111" s="2">
         <v>245</v>
       </c>
-      <c r="F111" s="8">
+      <c r="E111" s="16">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="G111" s="8">
         <v>8</v>
       </c>
-      <c r="G111">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75">
+      <c r="H111">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="5" t="s">
         <v>172</v>
       </c>
@@ -4041,21 +4374,24 @@
       <c r="C112" s="2">
         <v>153</v>
       </c>
-      <c r="D112" s="16">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F112" s="8">
-        <v>5</v>
-      </c>
-      <c r="G112">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75">
+      <c r="D112" s="2">
+        <v>153</v>
+      </c>
+      <c r="E112" s="16">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G112" s="8">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="5" t="s">
         <v>173</v>
       </c>
@@ -4065,21 +4401,24 @@
       <c r="C113" s="2">
         <v>490</v>
       </c>
-      <c r="D113" s="16">
-        <v>5</v>
-      </c>
-      <c r="E113" s="2">
-        <f t="shared" si="1"/>
+      <c r="D113" s="2">
         <v>490</v>
       </c>
-      <c r="F113" s="8">
+      <c r="E113" s="16">
+        <v>5</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="G113" s="8">
         <v>16</v>
       </c>
-      <c r="G113">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75">
+      <c r="H113">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="5" t="s">
         <v>174</v>
       </c>
@@ -4089,21 +4428,24 @@
       <c r="C114" s="2">
         <v>153</v>
       </c>
-      <c r="D114" s="16">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F114" s="8">
-        <v>5</v>
-      </c>
-      <c r="G114">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15.75">
+      <c r="D114" s="2">
+        <v>153</v>
+      </c>
+      <c r="E114" s="16">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G114" s="8">
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="5" t="s">
         <v>175</v>
       </c>
@@ -4113,21 +4455,24 @@
       <c r="C115" s="2">
         <v>500</v>
       </c>
-      <c r="D115" s="16">
-        <v>5</v>
-      </c>
-      <c r="E115" s="2">
-        <f t="shared" si="1"/>
+      <c r="D115" s="2">
         <v>500</v>
       </c>
-      <c r="F115" s="8">
+      <c r="E115" s="16">
+        <v>5</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G115" s="8">
         <v>16.350000000000001</v>
       </c>
-      <c r="G115">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75">
+      <c r="H115">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="5" t="s">
         <v>176</v>
       </c>
@@ -4137,21 +4482,24 @@
       <c r="C116" s="2">
         <v>153</v>
       </c>
-      <c r="D116" s="16">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F116" s="8">
-        <v>5</v>
-      </c>
-      <c r="G116">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15.75">
+      <c r="D116" s="2">
+        <v>153</v>
+      </c>
+      <c r="E116" s="16">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G116" s="8">
+        <v>5</v>
+      </c>
+      <c r="H116">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="5" t="s">
         <v>177</v>
       </c>
@@ -4161,21 +4509,24 @@
       <c r="C117" s="2">
         <v>496</v>
       </c>
-      <c r="D117" s="16">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2">
-        <f t="shared" si="1"/>
+      <c r="D117" s="2">
         <v>496</v>
       </c>
-      <c r="F117" s="8">
+      <c r="E117" s="16">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="1"/>
+        <v>496</v>
+      </c>
+      <c r="G117" s="8">
         <v>16.2</v>
       </c>
-      <c r="G117">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75">
+      <c r="H117">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="5" t="s">
         <v>178</v>
       </c>
@@ -4185,21 +4536,24 @@
       <c r="C118" s="2">
         <v>147</v>
       </c>
-      <c r="D118" s="16">
-        <v>5</v>
-      </c>
-      <c r="E118" s="2">
-        <f t="shared" si="1"/>
+      <c r="D118" s="2">
         <v>147</v>
       </c>
-      <c r="F118" s="8">
+      <c r="E118" s="16">
+        <v>5</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="G118" s="8">
         <v>4.8</v>
       </c>
-      <c r="G118">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75">
+      <c r="H118">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="5" t="s">
         <v>179</v>
       </c>
@@ -4209,21 +4563,24 @@
       <c r="C119" s="2">
         <v>508</v>
       </c>
-      <c r="D119" s="16">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
-        <f t="shared" si="1"/>
+      <c r="D119" s="2">
         <v>508</v>
       </c>
-      <c r="F119" s="8">
+      <c r="E119" s="16">
+        <v>0</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="1"/>
+        <v>508</v>
+      </c>
+      <c r="G119" s="8">
         <v>16.600000000000001</v>
       </c>
-      <c r="G119">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75">
+      <c r="H119">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="5" t="s">
         <v>180</v>
       </c>
@@ -4233,21 +4590,24 @@
       <c r="C120" s="2">
         <v>581</v>
       </c>
-      <c r="D120" s="16">
-        <v>5</v>
-      </c>
-      <c r="E120" s="2">
-        <f t="shared" si="1"/>
+      <c r="D120" s="2">
         <v>581</v>
       </c>
-      <c r="F120" s="8">
+      <c r="E120" s="16">
+        <v>5</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="1"/>
+        <v>581</v>
+      </c>
+      <c r="G120" s="8">
         <v>19</v>
       </c>
-      <c r="G120">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15.75">
+      <c r="H120">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="5" t="s">
         <v>181</v>
       </c>
@@ -4257,21 +4617,24 @@
       <c r="C121" s="2">
         <v>153</v>
       </c>
-      <c r="D121" s="16">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F121" s="8">
-        <v>5</v>
-      </c>
-      <c r="G121">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75">
+      <c r="D121" s="2">
+        <v>153</v>
+      </c>
+      <c r="E121" s="16">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G121" s="8">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="5" t="s">
         <v>182</v>
       </c>
@@ -4281,21 +4644,24 @@
       <c r="C122" s="2">
         <v>520</v>
       </c>
-      <c r="D122" s="16">
-        <v>5</v>
-      </c>
-      <c r="E122" s="2">
-        <f t="shared" si="1"/>
+      <c r="D122" s="2">
         <v>520</v>
       </c>
-      <c r="F122" s="8">
+      <c r="E122" s="16">
+        <v>5</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="G122" s="8">
         <v>17</v>
       </c>
-      <c r="G122">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75">
+      <c r="H122">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="5" t="s">
         <v>183</v>
       </c>
@@ -4305,21 +4671,24 @@
       <c r="C123" s="2">
         <v>2185</v>
       </c>
-      <c r="D123" s="16">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2">
-        <f t="shared" si="1"/>
+      <c r="D123" s="2">
         <v>2185</v>
       </c>
-      <c r="F123" s="8">
+      <c r="E123" s="16">
+        <v>0</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="1"/>
+        <v>2185</v>
+      </c>
+      <c r="G123" s="8">
         <v>71.400000000000006</v>
       </c>
-      <c r="G123">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15.75">
+      <c r="H123">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="5" t="s">
         <v>184</v>
       </c>
@@ -4329,21 +4698,24 @@
       <c r="C124" s="2">
         <v>6380</v>
       </c>
-      <c r="D124" s="16">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2">
-        <f t="shared" si="1"/>
+      <c r="D124" s="2">
         <v>6380</v>
       </c>
-      <c r="F124" s="8">
+      <c r="E124" s="16">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="1"/>
+        <v>6380</v>
+      </c>
+      <c r="G124" s="8">
         <v>208.5</v>
       </c>
-      <c r="G124">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15.75">
+      <c r="H124">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="5" t="s">
         <v>185</v>
       </c>
@@ -4353,21 +4725,24 @@
       <c r="C125" s="2">
         <v>20563</v>
       </c>
-      <c r="D125" s="16">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2">
-        <f t="shared" si="1"/>
+      <c r="D125" s="2">
         <v>20563</v>
       </c>
-      <c r="F125" s="8">
+      <c r="E125" s="16">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="1"/>
+        <v>20563</v>
+      </c>
+      <c r="G125" s="8">
         <v>672</v>
       </c>
-      <c r="G125">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75">
+      <c r="H125">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="5" t="s">
         <v>186</v>
       </c>
@@ -4377,21 +4752,24 @@
       <c r="C126" s="2">
         <v>165</v>
       </c>
-      <c r="D126" s="16">
-        <v>5</v>
-      </c>
-      <c r="E126" s="2">
-        <f t="shared" si="1"/>
+      <c r="D126" s="2">
         <v>165</v>
       </c>
-      <c r="F126" s="8">
+      <c r="E126" s="16">
+        <v>5</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="G126" s="8">
         <v>5.4</v>
       </c>
-      <c r="G126">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.75">
+      <c r="H126">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="5" t="s">
         <v>187</v>
       </c>
@@ -4401,21 +4779,24 @@
       <c r="C127" s="2">
         <v>612</v>
       </c>
-      <c r="D127" s="16">
-        <v>0</v>
-      </c>
-      <c r="E127" s="2">
-        <f t="shared" si="1"/>
+      <c r="D127" s="2">
         <v>612</v>
       </c>
-      <c r="F127" s="8">
+      <c r="E127" s="16">
+        <v>0</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="G127" s="8">
         <v>20</v>
       </c>
-      <c r="G127">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.75">
+      <c r="H127">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="5" t="s">
         <v>188</v>
       </c>
@@ -4425,21 +4806,24 @@
       <c r="C128" s="2">
         <v>685</v>
       </c>
-      <c r="D128" s="16">
-        <v>5</v>
-      </c>
-      <c r="E128" s="2">
-        <f t="shared" si="1"/>
+      <c r="D128" s="2">
         <v>685</v>
       </c>
-      <c r="F128" s="8">
+      <c r="E128" s="16">
+        <v>5</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="1"/>
+        <v>685</v>
+      </c>
+      <c r="G128" s="8">
         <v>22.4</v>
       </c>
-      <c r="G128">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.75">
+      <c r="H128">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="5" t="s">
         <v>189</v>
       </c>
@@ -4449,21 +4833,24 @@
       <c r="C129" s="2">
         <v>165</v>
       </c>
-      <c r="D129" s="1">
-        <v>5</v>
-      </c>
-      <c r="E129" s="2">
-        <f t="shared" si="1"/>
+      <c r="D129" s="2">
         <v>165</v>
       </c>
-      <c r="F129" s="8">
+      <c r="E129" s="1">
+        <v>5</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="G129" s="8">
         <v>5.4</v>
       </c>
-      <c r="G129">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15.75">
+      <c r="H129">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="5" t="s">
         <v>190</v>
       </c>
@@ -4473,21 +4860,24 @@
       <c r="C130" s="2">
         <v>713</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
+        <v>713</v>
+      </c>
+      <c r="E130" s="1">
         <v>1</v>
       </c>
-      <c r="E130" s="2">
+      <c r="F130" s="2">
         <f t="shared" si="1"/>
         <v>713</v>
       </c>
-      <c r="F130" s="8">
+      <c r="G130" s="8">
         <v>23.3</v>
       </c>
-      <c r="G130">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.75">
+      <c r="H130">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="5" t="s">
         <v>191</v>
       </c>
@@ -4497,21 +4887,24 @@
       <c r="C131" s="2">
         <v>153</v>
       </c>
-      <c r="D131" s="1">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F131" s="8">
-        <v>5</v>
-      </c>
-      <c r="G131">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15.75">
+      <c r="D131" s="2">
+        <v>153</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G131" s="8">
+        <v>5</v>
+      </c>
+      <c r="H131">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="5" t="s">
         <v>192</v>
       </c>
@@ -4521,21 +4914,24 @@
       <c r="C132" s="2">
         <v>734</v>
       </c>
-      <c r="D132" s="1">
-        <v>0</v>
-      </c>
-      <c r="E132" s="2">
-        <f t="shared" si="1"/>
+      <c r="D132" s="2">
         <v>734</v>
       </c>
-      <c r="F132" s="8">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="1"/>
+        <v>734</v>
+      </c>
+      <c r="G132" s="8">
         <v>24</v>
       </c>
-      <c r="G132">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75">
+      <c r="H132">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="5" t="s">
         <v>193</v>
       </c>
@@ -4545,21 +4941,24 @@
       <c r="C133" s="2">
         <v>184</v>
       </c>
-      <c r="D133" s="1">
-        <v>0</v>
-      </c>
-      <c r="E133" s="2">
-        <f t="shared" si="1"/>
+      <c r="D133" s="2">
         <v>184</v>
       </c>
-      <c r="F133" s="8">
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="G133" s="8">
         <v>6</v>
       </c>
-      <c r="G133">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75">
+      <c r="H133">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="5" t="s">
         <v>194</v>
       </c>
@@ -4569,21 +4968,24 @@
       <c r="C134" s="2">
         <v>826</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
+        <v>826</v>
+      </c>
+      <c r="E134" s="1">
         <v>3</v>
       </c>
-      <c r="E134" s="2">
+      <c r="F134" s="2">
         <f t="shared" si="1"/>
         <v>826</v>
       </c>
-      <c r="F134" s="8">
+      <c r="G134" s="8">
         <v>27</v>
       </c>
-      <c r="G134">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15.75">
+      <c r="H134">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="6" t="s">
         <v>236</v>
       </c>
@@ -4593,21 +4995,24 @@
       <c r="C135" s="19">
         <v>1989</v>
       </c>
-      <c r="D135" s="1">
-        <v>0</v>
-      </c>
-      <c r="E135" s="19">
-        <f t="shared" si="1"/>
+      <c r="D135" s="19">
         <v>1989</v>
       </c>
-      <c r="F135" s="8">
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="19">
+        <f t="shared" si="1"/>
+        <v>1989</v>
+      </c>
+      <c r="G135" s="8">
         <v>65</v>
       </c>
-      <c r="G135">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75">
+      <c r="H135">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="5" t="s">
         <v>237</v>
       </c>
@@ -4617,21 +5022,24 @@
       <c r="C136" s="19">
         <v>1989</v>
       </c>
-      <c r="D136" s="1">
-        <v>0</v>
-      </c>
-      <c r="E136" s="19">
-        <f t="shared" si="1"/>
+      <c r="D136" s="19">
         <v>1989</v>
       </c>
-      <c r="F136" s="8">
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="19">
+        <f t="shared" si="1"/>
+        <v>1989</v>
+      </c>
+      <c r="G136" s="8">
         <v>65</v>
       </c>
-      <c r="G136">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15.75">
+      <c r="H136">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="5" t="s">
         <v>238</v>
       </c>
@@ -4641,21 +5049,24 @@
       <c r="C137" s="19">
         <v>1805</v>
       </c>
-      <c r="D137" s="1">
-        <v>0</v>
-      </c>
-      <c r="E137" s="19">
-        <f t="shared" si="1"/>
+      <c r="D137" s="19">
         <v>1805</v>
       </c>
-      <c r="F137" s="8">
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="19">
+        <f t="shared" si="1"/>
+        <v>1805</v>
+      </c>
+      <c r="G137" s="8">
         <v>59</v>
       </c>
-      <c r="G137">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15.75">
+      <c r="H137">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="5" t="s">
         <v>195</v>
       </c>
@@ -4665,21 +5076,24 @@
       <c r="C138" s="2">
         <v>153</v>
       </c>
-      <c r="D138" s="1">
-        <v>0</v>
-      </c>
-      <c r="E138" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F138" s="8">
-        <v>5</v>
-      </c>
-      <c r="G138">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15.75">
+      <c r="D138" s="2">
+        <v>153</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G138" s="8">
+        <v>5</v>
+      </c>
+      <c r="H138">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="5" t="s">
         <v>196</v>
       </c>
@@ -4689,21 +5103,24 @@
       <c r="C139" s="2">
         <v>765</v>
       </c>
-      <c r="D139" s="1">
-        <v>0</v>
-      </c>
-      <c r="E139" s="2">
-        <f t="shared" si="1"/>
+      <c r="D139" s="2">
         <v>765</v>
       </c>
-      <c r="F139" s="8">
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="G139" s="8">
         <v>25</v>
       </c>
-      <c r="G139">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15.75">
+      <c r="H139">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="5" t="s">
         <v>197</v>
       </c>
@@ -4713,21 +5130,24 @@
       <c r="C140" s="2">
         <v>153</v>
       </c>
-      <c r="D140" s="1">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F140" s="8">
-        <v>5</v>
-      </c>
-      <c r="G140">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15.75">
+      <c r="D140" s="2">
+        <v>153</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G140" s="8">
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="5" t="s">
         <v>198</v>
       </c>
@@ -4737,21 +5157,24 @@
       <c r="C141" s="2">
         <v>753</v>
       </c>
-      <c r="D141" s="1">
-        <v>5</v>
-      </c>
-      <c r="E141" s="2">
-        <f t="shared" si="1"/>
+      <c r="D141" s="2">
         <v>753</v>
       </c>
-      <c r="F141" s="8">
+      <c r="E141" s="1">
+        <v>5</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="1"/>
+        <v>753</v>
+      </c>
+      <c r="G141" s="8">
         <v>24.6</v>
       </c>
-      <c r="G141">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15.75">
+      <c r="H141">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="5" t="s">
         <v>199</v>
       </c>
@@ -4761,21 +5184,24 @@
       <c r="C142" s="2">
         <v>153</v>
       </c>
-      <c r="D142" s="1">
-        <v>0</v>
-      </c>
-      <c r="E142" s="2">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="F142" s="8">
-        <v>5</v>
-      </c>
-      <c r="G142">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.75">
+      <c r="D142" s="2">
+        <v>153</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G142" s="8">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="5" t="s">
         <v>200</v>
       </c>
@@ -4785,21 +5211,24 @@
       <c r="C143" s="2">
         <v>918</v>
       </c>
-      <c r="D143" s="1">
-        <v>0</v>
-      </c>
-      <c r="E143" s="2">
-        <f t="shared" ref="E143:E170" si="2">ROUND(F143*G143,0)</f>
+      <c r="D143" s="2">
         <v>918</v>
       </c>
-      <c r="F143" s="8">
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" ref="F143:F170" si="2">ROUND(G143*H143,0)</f>
+        <v>918</v>
+      </c>
+      <c r="G143" s="8">
         <v>30</v>
       </c>
-      <c r="G143">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15.75">
+      <c r="H143">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="5" t="s">
         <v>201</v>
       </c>
@@ -4809,21 +5238,24 @@
       <c r="C144" s="2">
         <v>122</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="2">
+        <v>122</v>
+      </c>
+      <c r="E144" s="1">
         <v>9</v>
       </c>
-      <c r="E144" s="2">
+      <c r="F144" s="2">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="F144" s="8">
+      <c r="G144" s="8">
         <v>4</v>
       </c>
-      <c r="G144">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75">
+      <c r="H144">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="5" t="s">
         <v>202</v>
       </c>
@@ -4833,21 +5265,24 @@
       <c r="C145" s="2">
         <v>306</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="2">
+        <v>306</v>
+      </c>
+      <c r="E145" s="1">
         <v>1</v>
       </c>
-      <c r="E145" s="2">
+      <c r="F145" s="2">
         <f t="shared" si="2"/>
         <v>306</v>
       </c>
-      <c r="F145" s="8">
+      <c r="G145" s="8">
         <v>10</v>
       </c>
-      <c r="G145">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15.75">
+      <c r="H145">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="5" t="s">
         <v>203</v>
       </c>
@@ -4857,21 +5292,24 @@
       <c r="C146" s="2">
         <v>1010</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="2">
+        <v>1010</v>
+      </c>
+      <c r="E146" s="1">
         <v>1</v>
       </c>
-      <c r="E146" s="2">
+      <c r="F146" s="2">
         <f t="shared" si="2"/>
         <v>1010</v>
       </c>
-      <c r="F146" s="8">
+      <c r="G146" s="8">
         <v>33</v>
       </c>
-      <c r="G146">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="15.75">
+      <c r="H146">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="5" t="s">
         <v>204</v>
       </c>
@@ -4881,21 +5319,24 @@
       <c r="C147" s="2">
         <v>306</v>
       </c>
-      <c r="D147" s="1">
-        <v>0</v>
-      </c>
-      <c r="E147" s="2">
+      <c r="D147" s="2">
+        <v>306</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="2">
         <f t="shared" si="2"/>
         <v>306</v>
       </c>
-      <c r="F147" s="8">
+      <c r="G147" s="8">
         <v>10</v>
       </c>
-      <c r="G147">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="15.75">
+      <c r="H147">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="5" t="s">
         <v>205</v>
       </c>
@@ -4905,21 +5346,24 @@
       <c r="C148" s="2">
         <v>1071</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="2">
+        <v>1071</v>
+      </c>
+      <c r="E148" s="1">
         <v>1</v>
       </c>
-      <c r="E148" s="2">
+      <c r="F148" s="2">
         <f t="shared" si="2"/>
         <v>1071</v>
       </c>
-      <c r="F148" s="8">
+      <c r="G148" s="8">
         <v>35</v>
       </c>
-      <c r="G148">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75">
+      <c r="H148">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="5" t="s">
         <v>206</v>
       </c>
@@ -4929,21 +5373,24 @@
       <c r="C149" s="2">
         <v>306</v>
       </c>
-      <c r="D149" s="1">
-        <v>0</v>
-      </c>
-      <c r="E149" s="2">
+      <c r="D149" s="2">
+        <v>306</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="2">
         <f t="shared" si="2"/>
         <v>306</v>
       </c>
-      <c r="F149" s="8">
+      <c r="G149" s="8">
         <v>10</v>
       </c>
-      <c r="G149">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="15.75">
+      <c r="H149">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="5" t="s">
         <v>207</v>
       </c>
@@ -4953,21 +5400,24 @@
       <c r="C150" s="2">
         <v>1469</v>
       </c>
-      <c r="D150" s="1">
-        <v>0</v>
-      </c>
-      <c r="E150" s="2">
+      <c r="D150" s="2">
+        <v>1469</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="2">
         <f t="shared" si="2"/>
         <v>1469</v>
       </c>
-      <c r="F150" s="8">
+      <c r="G150" s="8">
         <v>48</v>
       </c>
-      <c r="G150">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15.75">
+      <c r="H150">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75">
       <c r="A151" s="5" t="s">
         <v>262</v>
       </c>
@@ -4977,21 +5427,24 @@
       <c r="C151" s="2">
         <v>1607</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="2">
+        <v>1607</v>
+      </c>
+      <c r="E151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="2">
+      <c r="F151" s="2">
         <f t="shared" si="2"/>
         <v>1607</v>
       </c>
-      <c r="F151" s="23">
+      <c r="G151" s="23">
         <v>52.5</v>
       </c>
-      <c r="G151">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15.75">
+      <c r="H151">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75">
       <c r="A152" s="24" t="s">
         <v>248</v>
       </c>
@@ -5001,21 +5454,24 @@
       <c r="C152" s="2">
         <v>147</v>
       </c>
-      <c r="D152" s="1">
-        <v>0</v>
-      </c>
-      <c r="E152" s="2">
+      <c r="D152" s="2">
+        <v>147</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="2">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="F152" s="23">
+      <c r="G152" s="23">
         <v>4.8</v>
       </c>
-      <c r="G152">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15.75">
+      <c r="H152">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75">
       <c r="A153" s="24" t="s">
         <v>249</v>
       </c>
@@ -5025,21 +5481,24 @@
       <c r="C153" s="2">
         <v>177</v>
       </c>
-      <c r="D153" s="1">
-        <v>0</v>
-      </c>
-      <c r="E153" s="2">
+      <c r="D153" s="2">
+        <v>177</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="2">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="F153" s="23">
+      <c r="G153" s="23">
         <v>5.8</v>
       </c>
-      <c r="G153">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15.75">
+      <c r="H153">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75">
       <c r="A154" s="24" t="s">
         <v>250</v>
       </c>
@@ -5049,21 +5508,24 @@
       <c r="C154" s="2">
         <v>282</v>
       </c>
-      <c r="D154" s="1">
-        <v>0</v>
-      </c>
-      <c r="E154" s="2">
+      <c r="D154" s="2">
+        <v>282</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="2">
         <f t="shared" si="2"/>
         <v>282</v>
       </c>
-      <c r="F154" s="23">
+      <c r="G154" s="23">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G154">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15.75">
+      <c r="H154">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.75">
       <c r="A155" s="24">
         <v>194757</v>
       </c>
@@ -5073,21 +5535,24 @@
       <c r="C155" s="2">
         <v>184</v>
       </c>
-      <c r="D155" s="1">
-        <v>0</v>
-      </c>
-      <c r="E155" s="2">
+      <c r="D155" s="2">
+        <v>184</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="2">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="F155" s="23">
+      <c r="G155" s="23">
         <v>6</v>
       </c>
-      <c r="G155">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15.75">
+      <c r="H155">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75">
       <c r="A156" s="24">
         <v>195003</v>
       </c>
@@ -5097,21 +5562,24 @@
       <c r="C156" s="2">
         <v>233</v>
       </c>
-      <c r="D156" s="1">
-        <v>0</v>
-      </c>
-      <c r="E156" s="2">
+      <c r="D156" s="2">
+        <v>233</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="2">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F156" s="23">
+      <c r="G156" s="23">
         <v>7.6</v>
       </c>
-      <c r="G156">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15.75">
+      <c r="H156">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75">
       <c r="A157" s="24">
         <v>194747</v>
       </c>
@@ -5121,21 +5589,24 @@
       <c r="C157" s="2">
         <v>138</v>
       </c>
-      <c r="D157" s="1">
-        <v>0</v>
-      </c>
-      <c r="E157" s="2">
+      <c r="D157" s="2">
+        <v>138</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="2">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="F157" s="18">
+      <c r="G157" s="18">
         <v>4.5</v>
       </c>
-      <c r="G157">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15.75">
+      <c r="H157">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.75">
       <c r="A158" s="24">
         <v>194734</v>
       </c>
@@ -5145,21 +5616,24 @@
       <c r="C158" s="2">
         <v>165</v>
       </c>
-      <c r="D158" s="1">
-        <v>0</v>
-      </c>
-      <c r="E158" s="2">
+      <c r="D158" s="2">
+        <v>165</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="2">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="F158" s="23">
+      <c r="G158" s="23">
         <v>5.4</v>
       </c>
-      <c r="G158">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15.75">
+      <c r="H158">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75">
       <c r="A159" s="27" t="s">
         <v>269</v>
       </c>
@@ -5169,21 +5643,24 @@
       <c r="C159" s="2">
         <v>156</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="2">
+        <v>156</v>
+      </c>
+      <c r="E159" s="1">
         <v>1</v>
       </c>
-      <c r="E159" s="2">
+      <c r="F159" s="2">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="F159" s="23">
+      <c r="G159" s="23">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G159">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15.75">
+      <c r="H159">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.75">
       <c r="A160" s="27" t="s">
         <v>268</v>
       </c>
@@ -5193,21 +5670,24 @@
       <c r="C160" s="2">
         <v>156</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="2">
+        <v>156</v>
+      </c>
+      <c r="E160" s="1">
         <v>1</v>
       </c>
-      <c r="E160" s="2">
+      <c r="F160" s="2">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="F160" s="23">
+      <c r="G160" s="23">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G160">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15.75">
+      <c r="H160">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15.75">
       <c r="A161" s="7" t="s">
         <v>210</v>
       </c>
@@ -5217,21 +5697,24 @@
       <c r="C161" s="2">
         <v>168</v>
       </c>
-      <c r="D161" s="1">
-        <v>0</v>
-      </c>
-      <c r="E161" s="2">
+      <c r="D161" s="2">
+        <v>168</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="2">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="F161" s="18">
+      <c r="G161" s="18">
         <v>5.5</v>
       </c>
-      <c r="G161">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15.75">
+      <c r="H161">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15.75">
       <c r="A162" s="25" t="s">
         <v>251</v>
       </c>
@@ -5241,21 +5724,24 @@
       <c r="C162" s="19">
         <v>523</v>
       </c>
-      <c r="D162" s="1">
-        <v>0</v>
-      </c>
-      <c r="E162" s="19">
+      <c r="D162" s="19">
+        <v>523</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="19">
         <f t="shared" si="2"/>
         <v>523</v>
       </c>
-      <c r="F162" s="18">
+      <c r="G162" s="18">
         <v>17.100000000000001</v>
       </c>
-      <c r="G162">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15.75">
+      <c r="H162">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15.75">
       <c r="A163" s="26" t="s">
         <v>253</v>
       </c>
@@ -5265,21 +5751,24 @@
       <c r="C163" s="19">
         <v>162</v>
       </c>
-      <c r="D163" s="1">
-        <v>0</v>
-      </c>
-      <c r="E163" s="19">
+      <c r="D163" s="19">
+        <v>162</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="19">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="F163" s="18">
+      <c r="G163" s="18">
         <v>5.3</v>
       </c>
-      <c r="G163">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15.75">
+      <c r="H163">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.75">
       <c r="A164" s="26" t="s">
         <v>254</v>
       </c>
@@ -5289,21 +5778,24 @@
       <c r="C164" s="19">
         <v>490</v>
       </c>
-      <c r="D164" s="1">
-        <v>0</v>
-      </c>
-      <c r="E164" s="19">
+      <c r="D164" s="19">
+        <v>490</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="19">
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="F164" s="18">
+      <c r="G164" s="18">
         <v>16</v>
       </c>
-      <c r="G164">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15.75">
+      <c r="H164">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15.75">
       <c r="A165" s="26" t="s">
         <v>255</v>
       </c>
@@ -5313,21 +5805,24 @@
       <c r="C165" s="19">
         <v>168</v>
       </c>
-      <c r="D165" s="1">
-        <v>0</v>
-      </c>
-      <c r="E165" s="19">
+      <c r="D165" s="19">
+        <v>168</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="19">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="F165" s="18">
+      <c r="G165" s="18">
         <v>5.5</v>
       </c>
-      <c r="G165">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15.75">
+      <c r="H165">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15.75">
       <c r="A166" s="26" t="s">
         <v>256</v>
       </c>
@@ -5337,21 +5832,24 @@
       <c r="C166" s="19">
         <v>536</v>
       </c>
-      <c r="D166" s="1">
-        <v>0</v>
-      </c>
-      <c r="E166" s="19">
+      <c r="D166" s="19">
+        <v>536</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F166" s="19">
         <f t="shared" si="2"/>
         <v>536</v>
       </c>
-      <c r="F166" s="18">
+      <c r="G166" s="18">
         <v>17.5</v>
       </c>
-      <c r="G166">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15.75">
+      <c r="H166">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.75">
       <c r="A167" s="20" t="s">
         <v>215</v>
       </c>
@@ -5361,21 +5859,24 @@
       <c r="C167" s="19">
         <v>95</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="19">
+        <v>95</v>
+      </c>
+      <c r="E167" s="1">
         <v>10</v>
       </c>
-      <c r="E167" s="19">
+      <c r="F167" s="19">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="F167" s="18">
+      <c r="G167" s="18">
         <v>3.1</v>
       </c>
-      <c r="G167">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15.75">
+      <c r="H167">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.75">
       <c r="A168" s="20" t="s">
         <v>216</v>
       </c>
@@ -5385,21 +5886,24 @@
       <c r="C168" s="19">
         <v>95</v>
       </c>
-      <c r="D168" s="1">
-        <v>0</v>
-      </c>
-      <c r="E168" s="19">
+      <c r="D168" s="19">
+        <v>95</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="19">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="F168" s="18">
+      <c r="G168" s="18">
         <v>3.1</v>
       </c>
-      <c r="G168">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15.75">
+      <c r="H168">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15.75">
       <c r="A169" s="20" t="s">
         <v>217</v>
       </c>
@@ -5409,21 +5913,24 @@
       <c r="C169" s="19">
         <v>101</v>
       </c>
-      <c r="D169" s="1">
-        <v>0</v>
-      </c>
-      <c r="E169" s="19">
+      <c r="D169" s="19">
+        <v>101</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+      <c r="F169" s="19">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F169" s="18">
+      <c r="G169" s="18">
         <v>3.3</v>
       </c>
-      <c r="G169">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15.75">
+      <c r="H169">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15.75">
       <c r="A170" s="20" t="s">
         <v>218</v>
       </c>
@@ -5433,26 +5940,30 @@
       <c r="C170" s="19">
         <v>101</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="19">
+        <v>101</v>
+      </c>
+      <c r="E170" s="1">
         <v>10</v>
       </c>
-      <c r="E170" s="19">
+      <c r="F170" s="19">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F170" s="18">
+      <c r="G170" s="18">
         <v>3.3</v>
       </c>
-      <c r="G170">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15.75">
+      <c r="H170">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15.75">
       <c r="C171" s="3"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="D172" s="1"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="E172" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
